--- a/COUNTforSENG.xlsx
+++ b/COUNTforSENG.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TonyTea/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jr281\Desktop\SENG300Group3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF59329-792C-44B7-855B-9CC796772256}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="8360" tabRatio="500"/>
+    <workbookView xWindow="14400" yWindow="458" windowWidth="14400" windowHeight="8363" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Nested type count</t>
   </si>
@@ -57,14 +58,55 @@
   </si>
   <si>
     <t>finished datadebug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilfredo's Projects </t>
+  </si>
+  <si>
+    <t>Dungeon</t>
+  </si>
+  <si>
+    <t>Game Engine</t>
+  </si>
+  <si>
+    <t>Magarena</t>
+  </si>
+  <si>
+    <t>Xmage</t>
+  </si>
+  <si>
+    <t>Martian Run</t>
+  </si>
+  <si>
+    <t>Mindustry</t>
+  </si>
+  <si>
+    <t>PretendYoureXyzzy</t>
+  </si>
+  <si>
+    <t>Seventh</t>
+  </si>
+  <si>
+    <t>Stendhal</t>
+  </si>
+  <si>
+    <t>Terasology</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -92,8 +134,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -103,6 +146,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -370,21 +416,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="46.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="46.8125" customWidth="1"/>
+    <col min="2" max="2" width="24.3125" customWidth="1"/>
+    <col min="3" max="3" width="13.3125" customWidth="1"/>
+    <col min="8" max="8" width="17.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -392,7 +439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -403,7 +450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -414,7 +461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -425,7 +472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -437,7 +484,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -449,7 +496,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -460,7 +507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -471,12 +518,293 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
       <c r="C10" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>104</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>64</v>
+      </c>
+      <c r="H13">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>93</v>
+      </c>
+      <c r="J13">
+        <v>106</v>
+      </c>
+      <c r="K13">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>301</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>1268</v>
+      </c>
+      <c r="E16">
+        <v>21007</v>
+      </c>
+      <c r="F16">
+        <v>39</v>
+      </c>
+      <c r="G16">
+        <v>183</v>
+      </c>
+      <c r="H16">
+        <v>84</v>
+      </c>
+      <c r="I16">
+        <v>702</v>
+      </c>
+      <c r="J16">
+        <v>2486</v>
+      </c>
+      <c r="K16">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>726</v>
+      </c>
+      <c r="C17">
+        <v>78</v>
+      </c>
+      <c r="D17">
+        <v>2659</v>
+      </c>
+      <c r="E17">
+        <v>6886</v>
+      </c>
+      <c r="F17">
+        <v>152</v>
+      </c>
+      <c r="G17">
+        <v>1273</v>
+      </c>
+      <c r="H17">
+        <v>144</v>
+      </c>
+      <c r="I17">
+        <v>4127</v>
+      </c>
+      <c r="J17">
+        <v>4679</v>
+      </c>
+      <c r="K17">
+        <v>7495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/COUNTforSENG.xlsx
+++ b/COUNTforSENG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jr281\Desktop\SENG300Group3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF59329-792C-44B7-855B-9CC796772256}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0286FA5D-8312-4237-BC62-98DE841CC54C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="458" windowWidth="14400" windowHeight="8363" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A2:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -633,34 +633,34 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.5">

--- a/COUNTforSENG.xlsx
+++ b/COUNTforSENG.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jr281\Desktop\SENG300Group3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TonyTea/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF59329-792C-44B7-855B-9CC796772256}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="458" windowWidth="14400" windowHeight="8363" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>Nested type count</t>
   </si>
@@ -45,19 +44,46 @@
     <t>Primitive type Count</t>
   </si>
   <si>
-    <t>Annotation type Count</t>
-  </si>
-  <si>
-    <t>Import Declarations Count</t>
-  </si>
-  <si>
     <t>Hadoop BAM (genomics)</t>
   </si>
   <si>
-    <t>cdk</t>
-  </si>
-  <si>
-    <t>finished datadebug</t>
+    <t xml:space="preserve">Number of releases (check on git) </t>
+  </si>
+  <si>
+    <t>Chemistry DK.</t>
+  </si>
+  <si>
+    <t>% nested compared to other declr types</t>
+  </si>
+  <si>
+    <t>Jannovar for VCF</t>
+  </si>
+  <si>
+    <t>Varsim</t>
+  </si>
+  <si>
+    <t>Cancer Registry cgritt</t>
+  </si>
+  <si>
+    <t>IGV</t>
+  </si>
+  <si>
+    <t>Iridia</t>
+  </si>
+  <si>
+    <t>re-do</t>
+  </si>
+  <si>
+    <t>Caleydo</t>
+  </si>
+  <si>
+    <t>changed annot</t>
+  </si>
+  <si>
+    <t>libSBOLj</t>
+  </si>
+  <si>
+    <t>intermine</t>
   </si>
   <si>
     <t xml:space="preserve">Wilfredo's Projects </t>
@@ -91,12 +117,27 @@
   </si>
   <si>
     <t>Terasology</t>
+  </si>
+  <si>
+    <t>Marker Annotation</t>
+  </si>
+  <si>
+    <t>Import Declr</t>
+  </si>
+  <si>
+    <t>Nested Annotation</t>
+  </si>
+  <si>
+    <t>Local Annotation</t>
+  </si>
+  <si>
+    <t>Other Annotation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -146,9 +187,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -416,63 +454,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.8125" customWidth="1"/>
-    <col min="2" max="2" width="24.3125" customWidth="1"/>
-    <col min="3" max="3" width="13.3125" customWidth="1"/>
-    <col min="8" max="8" width="17.5625" customWidth="1"/>
+    <col min="1" max="1" width="46.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <f>8+9+17+7+5+62+4+6+21</f>
+        <v>139</v>
+      </c>
+      <c r="D3" s="1">
+        <f>4+1+1+2</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <f>1+1+1+2+1</f>
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f>5+1+1+2+1</f>
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <f>33+1+3+1+1+1+69+4+18+7+10+8</f>
+        <v>156</v>
+      </c>
+      <c r="J3">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <f>23+18+5</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -480,11 +629,40 @@
         <v>34</v>
       </c>
       <c r="C6">
-        <f xml:space="preserve"> 99 + 74</f>
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+        <f xml:space="preserve"> 99 + 74 + 17+79+51+107+78+285+153+7+128+409+367</f>
+        <v>1854</v>
+      </c>
+      <c r="D6">
+        <f>103+25+13+45+33+3+61</f>
+        <v>283</v>
+      </c>
+      <c r="E6">
+        <v>81</v>
+      </c>
+      <c r="F6">
+        <f>7+5+3+16+9+13</f>
+        <v>53</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <f>19+2+49+10+14+72+83+5+31</f>
+        <v>285</v>
+      </c>
+      <c r="I6">
+        <f>422+6+35+12+2+8+4+10+55+441+17+90+170+211+235+70+33</f>
+        <v>1821</v>
+      </c>
+      <c r="J6">
+        <v>106</v>
+      </c>
+      <c r="K6">
+        <f>423+23+342+52</f>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -492,319 +670,472 @@
         <v>67</v>
       </c>
       <c r="C7">
-        <f xml:space="preserve"> 55 + 243 + 294</f>
-        <v>592</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+        <f xml:space="preserve"> 55 + 243 + 294 + 8 +217 +328+65+241+693+364+17+553+721+1580</f>
+        <v>5379</v>
+      </c>
+      <c r="D7">
+        <f>293+101+81+530+66+167</f>
+        <v>1238</v>
+      </c>
+      <c r="E7">
+        <v>213</v>
+      </c>
+      <c r="F7">
+        <f>16+4+14+11+8+9</f>
+        <v>62</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <f>13+37+8+8+4+74+4+4</f>
+        <v>152</v>
+      </c>
+      <c r="I7">
+        <f>1229+2+11+39+2+1+27+3+4+94+2234+12+411+617+813+603+138+77</f>
+        <v>6317</v>
+      </c>
+      <c r="J7">
+        <v>159</v>
+      </c>
+      <c r="K7">
+        <f>256+12+390+65</f>
+        <v>723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>1414</v>
+      </c>
+      <c r="E8">
+        <v>313</v>
+      </c>
+      <c r="F8">
+        <v>56</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>240</v>
+      </c>
+      <c r="I8">
+        <v>1018</v>
+      </c>
+      <c r="J8">
+        <v>227</v>
+      </c>
+      <c r="K8">
+        <f>196+9+239+46</f>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A12" s="1" t="s">
+      <c r="B13">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>67</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>34</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <f>B3/B6*100%</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:F14" si="0">C3/C6*100%</f>
+        <v>7.4973031283710898E-2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>2.8268551236749116E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>4.9382716049382713E-2</v>
+      </c>
+      <c r="F14">
+        <f>F3/F6*100%</f>
+        <v>0.11320754716981132</v>
+      </c>
+      <c r="G14">
+        <f>G3/G6*100%</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H14">
+        <f>H3/H6*100%</f>
+        <v>3.5087719298245612E-2</v>
+      </c>
+      <c r="I14">
+        <f>I3/I6*100%</f>
+        <v>8.5667215815486003E-2</v>
+      </c>
+      <c r="J14">
+        <f>J3/J6*100%</f>
+        <v>0.14150943396226415</v>
+      </c>
+      <c r="K14">
+        <f>K3/K6*100%</f>
+        <v>5.4761904761904762E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>37</v>
+      </c>
+      <c r="E19">
+        <v>104</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>64</v>
+      </c>
+      <c r="H19">
         <v>13</v>
       </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="I19">
+        <v>93</v>
+      </c>
+      <c r="J19">
+        <v>106</v>
+      </c>
+      <c r="K19">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
         <v>15</v>
       </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>37</v>
-      </c>
-      <c r="E13">
-        <v>104</v>
-      </c>
-      <c r="F13">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>609</v>
+      </c>
+      <c r="E21">
+        <v>29</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>105</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>154</v>
+      </c>
+      <c r="J21">
+        <v>270</v>
+      </c>
+      <c r="K21">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>301</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>1268</v>
+      </c>
+      <c r="E22">
+        <v>21007</v>
+      </c>
+      <c r="F22">
+        <v>39</v>
+      </c>
+      <c r="G22">
+        <v>183</v>
+      </c>
+      <c r="H22">
+        <v>84</v>
+      </c>
+      <c r="I22">
+        <v>702</v>
+      </c>
+      <c r="J22">
+        <v>2486</v>
+      </c>
+      <c r="K22">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>726</v>
+      </c>
+      <c r="C23">
+        <v>78</v>
+      </c>
+      <c r="D23">
+        <v>2659</v>
+      </c>
+      <c r="E23">
+        <v>6886</v>
+      </c>
+      <c r="F23">
+        <v>152</v>
+      </c>
+      <c r="G23">
+        <v>1273</v>
+      </c>
+      <c r="H23">
+        <v>144</v>
+      </c>
+      <c r="I23">
+        <v>4127</v>
+      </c>
+      <c r="J23">
+        <v>4679</v>
+      </c>
+      <c r="K23">
+        <v>7495</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>8</v>
-      </c>
-      <c r="G13">
-        <v>64</v>
-      </c>
-      <c r="H13">
-        <v>13</v>
-      </c>
-      <c r="I13">
-        <v>93</v>
-      </c>
-      <c r="J13">
-        <v>106</v>
-      </c>
-      <c r="K13">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>301</v>
-      </c>
-      <c r="C16">
-        <v>30</v>
-      </c>
-      <c r="D16">
-        <v>1268</v>
-      </c>
-      <c r="E16">
-        <v>21007</v>
-      </c>
-      <c r="F16">
-        <v>39</v>
-      </c>
-      <c r="G16">
-        <v>183</v>
-      </c>
-      <c r="H16">
-        <v>84</v>
-      </c>
-      <c r="I16">
-        <v>702</v>
-      </c>
-      <c r="J16">
-        <v>2486</v>
-      </c>
-      <c r="K16">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>726</v>
-      </c>
-      <c r="C17">
-        <v>78</v>
-      </c>
-      <c r="D17">
-        <v>2659</v>
-      </c>
-      <c r="E17">
-        <v>6886</v>
-      </c>
-      <c r="F17">
-        <v>152</v>
-      </c>
-      <c r="G17">
-        <v>1273</v>
-      </c>
-      <c r="H17">
-        <v>144</v>
-      </c>
-      <c r="I17">
-        <v>4127</v>
-      </c>
-      <c r="J17">
-        <v>4679</v>
-      </c>
-      <c r="K17">
-        <v>7495</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/COUNTforSENG.xlsx
+++ b/COUNTforSENG.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16760" tabRatio="500"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Nested type count</t>
   </si>
@@ -65,12 +65,6 @@
     <t>Cancer Registry cgritt</t>
   </si>
   <si>
-    <t>IGV</t>
-  </si>
-  <si>
-    <t>Iridia</t>
-  </si>
-  <si>
     <t>re-do</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
     <t>libSBOLj</t>
   </si>
   <si>
-    <t>intermine</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wilfredo's Projects </t>
   </si>
   <si>
@@ -132,6 +123,18 @@
   </si>
   <si>
     <t>Other Annotation</t>
+  </si>
+  <si>
+    <t>openCGA</t>
+  </si>
+  <si>
+    <t>genome-nexus</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>geneDB</t>
   </si>
 </sst>
 </file>
@@ -175,9 +178,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,401 +472,536 @@
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <f>8+9+17+7+5+62+4+6+21</f>
-        <v>139</v>
-      </c>
-      <c r="D3" s="1">
-        <f>4+1+1+2</f>
-        <v>8</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C3" s="2">
+        <f>0+8+26+7+1+5+62+7+3+6+21</f>
+        <v>146</v>
+      </c>
+      <c r="D3" s="2">
+        <f>3+1</f>
         <v>4</v>
       </c>
-      <c r="F3" s="1">
-        <f>1+1+1+2+1</f>
-        <v>6</v>
-      </c>
-      <c r="G3">
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <f>1+2</f>
+        <v>3</v>
+      </c>
+      <c r="G3" s="2">
+        <f>32+119</f>
+        <v>151</v>
+      </c>
+      <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="H3">
-        <f>5+1+1+2+1</f>
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <f>33+1+3+1+1+1+69+4+18+7+10+8</f>
-        <v>156</v>
-      </c>
-      <c r="J3">
-        <v>15</v>
+      <c r="I3" s="2">
+        <f>40+18+7</f>
+        <v>65</v>
+      </c>
+      <c r="J3" s="2">
+        <v>23</v>
       </c>
       <c r="K3">
-        <f>23+18+5</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <f>0+42+34+41+8+2+1+2+3+19</f>
+        <v>152</v>
+      </c>
+      <c r="D5" s="2">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <f>91+22+25</f>
+        <v>138</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>34</v>
       </c>
-      <c r="C6">
-        <f xml:space="preserve"> 99 + 74 + 17+79+51+107+78+285+153+7+128+409+367</f>
-        <v>1854</v>
-      </c>
-      <c r="D6">
-        <f>103+25+13+45+33+3+61</f>
-        <v>283</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="2">
+        <f>11+5+83+221+107+78+218+285+153+7+202+125+409+367</f>
+        <v>2271</v>
+      </c>
+      <c r="D6" s="2">
+        <f>297+27+23</f>
+        <v>347</v>
+      </c>
+      <c r="E6" s="2">
         <v>81</v>
       </c>
-      <c r="F6">
-        <f>7+5+3+16+9+13</f>
-        <v>53</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <f>19+2+49+10+14+72+83+5+31</f>
-        <v>285</v>
-      </c>
-      <c r="I6">
-        <f>422+6+35+12+2+8+4+10+55+441+17+90+170+211+235+70+33</f>
-        <v>1821</v>
-      </c>
-      <c r="J6">
-        <v>106</v>
-      </c>
-      <c r="K6">
-        <f>423+23+342+52</f>
-        <v>840</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F6" s="2">
+        <f>9+24</f>
+        <v>33</v>
+      </c>
+      <c r="G6" s="2">
+        <f>94+71</f>
+        <v>165</v>
+      </c>
+      <c r="H6" s="2">
+        <v>133</v>
+      </c>
+      <c r="I6" s="2">
+        <f>558+170+211</f>
+        <v>939</v>
+      </c>
+      <c r="J6" s="2">
+        <v>127</v>
+      </c>
+      <c r="K6" s="2">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>67</v>
       </c>
-      <c r="C7">
-        <f xml:space="preserve"> 55 + 243 + 294 + 8 +217 +328+65+241+693+364+17+553+721+1580</f>
-        <v>5379</v>
-      </c>
-      <c r="D7">
-        <f>293+101+81+530+66+167</f>
-        <v>1238</v>
-      </c>
-      <c r="E7">
+      <c r="C7" s="2">
+        <f>53+2+243+847+65+241+546+693+364+17+689+272+721+1580</f>
+        <v>6333</v>
+      </c>
+      <c r="D7" s="2">
+        <f>780+101+81</f>
+        <v>962</v>
+      </c>
+      <c r="E7" s="2">
         <v>213</v>
       </c>
-      <c r="F7">
-        <f>16+4+14+11+8+9</f>
-        <v>62</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <f>13+37+8+8+4+74+4+4</f>
-        <v>152</v>
-      </c>
-      <c r="I7">
-        <f>1229+2+11+39+2+1+27+3+4+94+2234+12+411+617+813+603+138+77</f>
-        <v>6317</v>
-      </c>
-      <c r="J7">
-        <v>159</v>
-      </c>
-      <c r="K7">
-        <f>256+12+390+65</f>
-        <v>723</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F7" s="2">
+        <f>16+29</f>
+        <v>45</v>
+      </c>
+      <c r="G7" s="2">
+        <f>439+72</f>
+        <v>511</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2">
+        <f>1412+617+840</f>
+        <v>2869</v>
+      </c>
+      <c r="J7" s="2">
+        <v>167</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2">
+        <f>18+4+538+1301+354+508+1244+959+382+242+1809+2058</f>
+        <v>9417</v>
+      </c>
+      <c r="D8" s="2">
+        <f>721+27+61</f>
+        <v>809</v>
+      </c>
+      <c r="E8" s="2">
+        <v>51</v>
+      </c>
+      <c r="F8" s="2">
+        <f>40+100</f>
+        <v>140</v>
+      </c>
+      <c r="G8" s="2">
+        <f>102+132</f>
+        <v>234</v>
+      </c>
+      <c r="H8" s="2">
+        <v>155</v>
+      </c>
+      <c r="I8" s="2">
+        <f>866+289+340</f>
+        <v>1495</v>
+      </c>
+      <c r="J8" s="2">
+        <v>210</v>
+      </c>
+      <c r="K8" s="2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B8">
-        <v>27</v>
-      </c>
-      <c r="C8">
-        <v>40</v>
-      </c>
-      <c r="D8">
-        <v>1414</v>
-      </c>
-      <c r="E8">
-        <v>313</v>
-      </c>
-      <c r="F8">
-        <v>56</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8">
-        <v>240</v>
-      </c>
-      <c r="I8">
-        <v>1018</v>
-      </c>
-      <c r="J8">
-        <v>227</v>
-      </c>
-      <c r="K8">
-        <f>196+9+239+46</f>
-        <v>490</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>17</v>
+      </c>
+      <c r="K12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13">
-        <v>28</v>
-      </c>
-      <c r="C13">
-        <v>67</v>
-      </c>
-      <c r="D13">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>34</v>
-      </c>
-      <c r="F13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14">
-        <f>B3/B6*100%</f>
-        <v>5.8823529411764705E-2</v>
+        <f>B3/B6*100</f>
+        <v>5.8823529411764701</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:F14" si="0">C3/C6*100%</f>
-        <v>7.4973031283710898E-2</v>
+        <f t="shared" ref="C14:K14" si="0">C3/C6*100</f>
+        <v>6.4288859533245271</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>2.8268551236749116E-2</v>
+        <v>1.1527377521613833</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>4.9382716049382713E-2</v>
+        <v>4.9382716049382713</v>
       </c>
       <c r="F14">
-        <f>F3/F6*100%</f>
-        <v>0.11320754716981132</v>
+        <f t="shared" si="0"/>
+        <v>9.0909090909090917</v>
       </c>
       <c r="G14">
-        <f>G3/G6*100%</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="0"/>
+        <v>91.515151515151516</v>
       </c>
       <c r="H14">
-        <f>H3/H6*100%</f>
-        <v>3.5087719298245612E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.75187969924812026</v>
       </c>
       <c r="I14">
-        <f>I3/I6*100%</f>
-        <v>8.5667215815486003E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.9222577209797658</v>
       </c>
       <c r="J14">
-        <f>J3/J6*100%</f>
-        <v>0.14150943396226415</v>
+        <f t="shared" si="0"/>
+        <v>18.110236220472441</v>
       </c>
       <c r="K14">
-        <f>K3/K6*100%</f>
-        <v>5.4761904761904762E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>3.9416058394160585</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" t="s">
+      <c r="G18" t="s">
         <v>22</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>23</v>
       </c>
-      <c r="F18" t="s">
+      <c r="I18" t="s">
         <v>24</v>
       </c>
-      <c r="G18" t="s">
+      <c r="J18" t="s">
         <v>25</v>
       </c>
-      <c r="H18" t="s">
+      <c r="K18" t="s">
         <v>26</v>
-      </c>
-      <c r="I18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1042,7 +1181,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1077,7 +1216,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1112,17 +1251,17 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1133,6 +1272,46 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
+      </c>
+      <c r="B30">
+        <f>B19/B22*100</f>
+        <v>3.322259136212625</v>
+      </c>
+      <c r="C30">
+        <f>C19/C22*100</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30:K30" si="1">D19/D22*100</f>
+        <v>2.9179810725552051</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>0.49507307088113484</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>20.512820512820511</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>34.972677595628419</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>15.476190476190476</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>13.247863247863249</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>4.2638777152051484</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>10.256410256410255</v>
       </c>
     </row>
   </sheetData>

--- a/COUNTforSENG.xlsx
+++ b/COUNTforSENG.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TonyTea/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simranbhattarai/Documents/GitHub/SENG300GROUP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="7100" yWindow="460" windowWidth="21700" windowHeight="16740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>Nested type count</t>
   </si>
@@ -135,6 +135,48 @@
   </si>
   <si>
     <t>geneDB</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>Quartz Scheduler</t>
+  </si>
+  <si>
+    <t>Open EMRConect</t>
+  </si>
+  <si>
+    <t>Wallet</t>
+  </si>
+  <si>
+    <t>Secure Banking System</t>
+  </si>
+  <si>
+    <t>Calendar System</t>
+  </si>
+  <si>
+    <t>Time4J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voj </t>
+  </si>
+  <si>
+    <t>Core Flight Systm(CFS) and data Dictionary(CCDD) Utility</t>
+  </si>
+  <si>
+    <t>Dert</t>
+  </si>
+  <si>
+    <t>Hyper realistic zombie</t>
+  </si>
+  <si>
+    <t>Other Interface/class Decl (non nest/non local/non anon)</t>
+  </si>
+  <si>
+    <t>Annotation type Count</t>
+  </si>
+  <si>
+    <t>Import Declarations Count</t>
   </si>
 </sst>
 </file>
@@ -178,10 +220,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1314,6 +1365,286 @@
         <v>10.256410256410255</v>
       </c>
     </row>
+    <row r="33" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="4">
+        <v>71</v>
+      </c>
+      <c r="C34">
+        <v>22</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>14</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="4">
+        <v>459</v>
+      </c>
+      <c r="C37">
+        <v>177</v>
+      </c>
+      <c r="D37">
+        <v>11</v>
+      </c>
+      <c r="E37">
+        <v>61</v>
+      </c>
+      <c r="F37">
+        <v>45</v>
+      </c>
+      <c r="G37">
+        <v>58</v>
+      </c>
+      <c r="H37">
+        <v>39</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <v>334</v>
+      </c>
+      <c r="K37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1181</v>
+      </c>
+      <c r="C38">
+        <v>542</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>112</v>
+      </c>
+      <c r="F38">
+        <v>116</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>165</v>
+      </c>
+      <c r="I38">
+        <v>117</v>
+      </c>
+      <c r="J38">
+        <v>1088</v>
+      </c>
+      <c r="K38">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="4">
+        <v>517</v>
+      </c>
+      <c r="C39">
+        <v>78</v>
+      </c>
+      <c r="D39">
+        <v>27</v>
+      </c>
+      <c r="E39">
+        <v>311</v>
+      </c>
+      <c r="F39">
+        <v>62</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>74</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>190</v>
+      </c>
+      <c r="K39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/COUNTforSENG.xlsx
+++ b/COUNTforSENG.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simranbhattarai/Documents/GitHub/SENG300GROUP3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loganpearce/Documents/GitHub/SENG300GROUP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5BC41D-E805-2744-9E6E-4CED05FF385F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="460" windowWidth="21700" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="13680" yWindow="460" windowWidth="19940" windowHeight="19520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
   <si>
     <t>Nested type count</t>
   </si>
@@ -135,6 +136,39 @@
   </si>
   <si>
     <t>geneDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logan's Projects </t>
+  </si>
+  <si>
+    <t>Incibator Dubbo</t>
+  </si>
+  <si>
+    <t>KillBill</t>
+  </si>
+  <si>
+    <t>Open Refine</t>
+  </si>
+  <si>
+    <t>Stage Monitor</t>
+  </si>
+  <si>
+    <t>Graph Hopper</t>
+  </si>
+  <si>
+    <t>h20.io</t>
+  </si>
+  <si>
+    <t>Omni Notes</t>
+  </si>
+  <si>
+    <t>pinpoint</t>
+  </si>
+  <si>
+    <t>Crawler4j</t>
+  </si>
+  <si>
+    <t>openFire</t>
   </si>
   <si>
     <t>Types</t>
@@ -182,8 +216,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -220,10 +254,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -242,6 +277,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -509,24 +547,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:K55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="46.83203125" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="G1" t="s">
         <v>12</v>
       </c>
@@ -534,7 +574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="40" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -566,7 +606,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -606,7 +646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -645,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -685,7 +725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -725,7 +765,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -765,7 +805,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -805,7 +845,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -844,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -883,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -922,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -961,12 +1001,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1014,13 +1054,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1055,7 +1095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1090,7 +1130,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1125,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1160,7 +1200,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1195,7 +1235,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1230,7 +1270,7 @@
         <v>7495</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1265,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1300,27 +1340,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1365,287 +1405,723 @@
         <v>10.256410256410255</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="96" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="G33" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="I33" t="s">
         <v>43</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="J33" t="s">
         <v>44</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="K33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>141</v>
+      </c>
+      <c r="D34">
+        <v>84</v>
+      </c>
+      <c r="E34">
+        <v>55</v>
+      </c>
+      <c r="F34">
+        <v>96</v>
+      </c>
+      <c r="G34">
+        <v>51</v>
+      </c>
+      <c r="H34">
+        <v>239</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="J34">
+        <v>351</v>
+      </c>
+      <c r="K34">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>6</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>75</v>
+      </c>
+      <c r="D36">
+        <v>229</v>
+      </c>
+      <c r="E36">
+        <v>14</v>
+      </c>
+      <c r="F36">
+        <v>138</v>
+      </c>
+      <c r="G36">
+        <v>34</v>
+      </c>
+      <c r="H36">
+        <v>93</v>
+      </c>
+      <c r="I36">
+        <v>9</v>
+      </c>
+      <c r="J36">
+        <v>236</v>
+      </c>
+      <c r="K36">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>71</v>
+      </c>
+      <c r="C37">
+        <v>1247</v>
+      </c>
+      <c r="D37">
+        <v>1427</v>
+      </c>
+      <c r="E37">
+        <v>607</v>
+      </c>
+      <c r="F37">
+        <v>465</v>
+      </c>
+      <c r="G37">
+        <v>547</v>
+      </c>
+      <c r="H37">
+        <v>1387</v>
+      </c>
+      <c r="I37">
+        <v>165</v>
+      </c>
+      <c r="J37">
+        <v>3809</v>
+      </c>
+      <c r="K37">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>256</v>
+      </c>
+      <c r="C38">
+        <v>3264</v>
+      </c>
+      <c r="D38">
+        <v>1194</v>
+      </c>
+      <c r="E38">
+        <v>1149</v>
+      </c>
+      <c r="F38">
+        <v>786</v>
+      </c>
+      <c r="G38">
+        <v>2546</v>
+      </c>
+      <c r="H38">
+        <v>4871</v>
+      </c>
+      <c r="I38">
+        <v>471</v>
+      </c>
+      <c r="J38">
+        <v>10604</v>
+      </c>
+      <c r="K38">
+        <v>4809</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39">
+        <v>48</v>
+      </c>
+      <c r="C39">
+        <v>1023</v>
+      </c>
+      <c r="D39">
+        <v>4443</v>
+      </c>
+      <c r="E39">
+        <v>896</v>
+      </c>
+      <c r="F39">
+        <v>1294</v>
+      </c>
+      <c r="G39">
+        <v>980</v>
+      </c>
+      <c r="H39">
+        <v>1885</v>
+      </c>
+      <c r="I39">
+        <v>200</v>
+      </c>
+      <c r="J39">
+        <v>7221</v>
+      </c>
+      <c r="K39">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>40</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <f>B34/B37*100</f>
+        <v>11.267605633802818</v>
+      </c>
+      <c r="C45">
+        <f>C34/C37*100</f>
+        <v>11.307137129109863</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:K45" si="2">D34/D37*100</f>
+        <v>5.8864751226348977</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>9.0609555189456348</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>20.64516129032258</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>9.3235831809872032</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>17.231434751261716</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>3.6363636363636362</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>9.2150170648464158</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>5.3559764859568908</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="96">
+      <c r="A48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="5">
+        <v>71</v>
+      </c>
+      <c r="C49">
+        <v>22</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>20</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49">
+        <v>14</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="5">
+        <v>459</v>
+      </c>
+      <c r="C52">
+        <v>177</v>
+      </c>
+      <c r="D52">
+        <v>11</v>
+      </c>
+      <c r="E52">
+        <v>61</v>
+      </c>
+      <c r="F52">
         <v>45</v>
       </c>
-      <c r="K33" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="4">
-        <v>71</v>
-      </c>
-      <c r="C34">
-        <v>22</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
+      <c r="G52">
+        <v>58</v>
+      </c>
+      <c r="H52">
+        <v>39</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>334</v>
+      </c>
+      <c r="K52">
         <v>20</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="5">
+        <v>1181</v>
+      </c>
+      <c r="C53">
+        <v>542</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>112</v>
+      </c>
+      <c r="F53">
+        <v>116</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>165</v>
+      </c>
+      <c r="I53">
+        <v>117</v>
+      </c>
+      <c r="J53">
+        <v>1088</v>
+      </c>
+      <c r="K53">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="5">
+        <v>517</v>
+      </c>
+      <c r="C54">
+        <v>78</v>
+      </c>
+      <c r="D54">
+        <v>27</v>
+      </c>
+      <c r="E54">
+        <v>311</v>
+      </c>
+      <c r="F54">
+        <v>62</v>
+      </c>
+      <c r="G54">
         <v>1</v>
       </c>
-      <c r="I34">
-        <v>4</v>
-      </c>
-      <c r="J34">
-        <v>14</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="4">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="4">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="4">
-        <v>459</v>
-      </c>
-      <c r="C37">
-        <v>177</v>
-      </c>
-      <c r="D37">
-        <v>11</v>
-      </c>
-      <c r="E37">
-        <v>61</v>
-      </c>
-      <c r="F37">
-        <v>45</v>
-      </c>
-      <c r="G37">
-        <v>58</v>
-      </c>
-      <c r="H37">
-        <v>39</v>
-      </c>
-      <c r="I37">
-        <v>5</v>
-      </c>
-      <c r="J37">
-        <v>334</v>
-      </c>
-      <c r="K37">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="4">
-        <v>1181</v>
-      </c>
-      <c r="C38">
-        <v>542</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-      <c r="E38">
-        <v>112</v>
-      </c>
-      <c r="F38">
-        <v>116</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>165</v>
-      </c>
-      <c r="I38">
-        <v>117</v>
-      </c>
-      <c r="J38">
-        <v>1088</v>
-      </c>
-      <c r="K38">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="4">
-        <v>517</v>
-      </c>
-      <c r="C39">
-        <v>78</v>
-      </c>
-      <c r="D39">
-        <v>27</v>
-      </c>
-      <c r="E39">
-        <v>311</v>
-      </c>
-      <c r="F39">
-        <v>62</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
+      <c r="H54">
         <v>74</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
         <v>190</v>
       </c>
-      <c r="K39">
+      <c r="K54">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="4">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
+    <row r="55" spans="1:11">
+      <c r="A55" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="5">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/COUNTforSENG.xlsx
+++ b/COUNTforSENG.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loganpearce/Documents/GitHub/SENG300GROUP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5BC41D-E805-2744-9E6E-4CED05FF385F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{AC5BC41D-E805-2744-9E6E-4CED05FF385F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{0C6239DC-5F0B-48E9-B479-5C066B970766}"/>
   <bookViews>
     <workbookView xWindow="13680" yWindow="460" windowWidth="19940" windowHeight="19520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179016"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
   <si>
     <t>Nested type count</t>
   </si>
@@ -211,13 +211,46 @@
   </si>
   <si>
     <t>Import Declarations Count</t>
+  </si>
+  <si>
+    <t>Amy's Projects</t>
+  </si>
+  <si>
+    <t>Shimmer</t>
+  </si>
+  <si>
+    <t>Applozic</t>
+  </si>
+  <si>
+    <t>Ribot</t>
+  </si>
+  <si>
+    <t>PocketHub</t>
+  </si>
+  <si>
+    <t>ownCloud</t>
+  </si>
+  <si>
+    <t>Slide</t>
+  </si>
+  <si>
+    <t>OpenLauncher</t>
+  </si>
+  <si>
+    <t>Activity Tracking/Location Sharing App</t>
+  </si>
+  <si>
+    <t>Note App</t>
+  </si>
+  <si>
+    <t>Plaid App</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -548,25 +581,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:K55"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.83203125" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="46.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.31640625" customWidth="1"/>
+    <col min="4" max="4" width="20.71484375" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.98828125" customWidth="1"/>
+    <col min="7" max="7" width="13.31640625" customWidth="1"/>
+    <col min="8" max="8" width="15.2890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G1" t="s">
         <v>12</v>
       </c>
@@ -574,7 +607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="40" customHeight="1">
+    <row r="2" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -606,7 +639,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -646,7 +679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -685,7 +718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -725,7 +758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -765,7 +798,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -805,7 +838,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -845,7 +878,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -884,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -923,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -962,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1001,12 +1034,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1054,13 +1087,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1095,7 +1128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1130,7 +1163,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1165,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1200,7 +1233,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1235,7 +1268,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1270,7 +1303,7 @@
         <v>7495</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1305,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1340,27 +1373,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1405,7 +1438,7 @@
         <v>10.256410256410255</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -1440,7 +1473,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1475,7 +1508,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1510,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -1545,7 +1578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1580,7 +1613,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1615,7 +1648,7 @@
         <v>4809</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -1650,7 +1683,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -1685,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -1720,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -1755,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -1790,12 +1823,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1840,7 +1873,7 @@
         <v>5.3559764859568908</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="96">
+    <row r="48" spans="1:11" ht="74.25" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
@@ -1875,7 +1908,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>0</v>
       </c>
@@ -1910,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>1</v>
       </c>
@@ -1945,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>2</v>
       </c>
@@ -1980,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>58</v>
       </c>
@@ -2015,7 +2048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>4</v>
       </c>
@@ -2050,7 +2083,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>59</v>
       </c>
@@ -2085,7 +2118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>60</v>
       </c>
@@ -2118,6 +2151,441 @@
       </c>
       <c r="K55">
         <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" t="s">
+        <v>66</v>
+      </c>
+      <c r="G58" t="s">
+        <v>67</v>
+      </c>
+      <c r="H58" t="s">
+        <v>68</v>
+      </c>
+      <c r="I58" t="s">
+        <v>69</v>
+      </c>
+      <c r="J58" t="s">
+        <v>70</v>
+      </c>
+      <c r="K58" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>45</v>
+      </c>
+      <c r="D59">
+        <v>51</v>
+      </c>
+      <c r="E59">
+        <v>62</v>
+      </c>
+      <c r="F59">
+        <v>19</v>
+      </c>
+      <c r="G59">
+        <v>43</v>
+      </c>
+      <c r="H59">
+        <v>7</v>
+      </c>
+      <c r="I59">
+        <v>6</v>
+      </c>
+      <c r="J59">
+        <v>4</v>
+      </c>
+      <c r="K59">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>49</v>
+      </c>
+      <c r="D61">
+        <v>119</v>
+      </c>
+      <c r="E61">
+        <v>243</v>
+      </c>
+      <c r="F61">
+        <v>11</v>
+      </c>
+      <c r="G61">
+        <v>167</v>
+      </c>
+      <c r="H61">
+        <v>8</v>
+      </c>
+      <c r="I61">
+        <v>24</v>
+      </c>
+      <c r="J61">
+        <v>4</v>
+      </c>
+      <c r="K61">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>259</v>
+      </c>
+      <c r="D62">
+        <v>361</v>
+      </c>
+      <c r="E62">
+        <v>541</v>
+      </c>
+      <c r="F62">
+        <v>211</v>
+      </c>
+      <c r="G62">
+        <v>232</v>
+      </c>
+      <c r="H62">
+        <v>18</v>
+      </c>
+      <c r="I62">
+        <v>79</v>
+      </c>
+      <c r="J62">
+        <v>24</v>
+      </c>
+      <c r="K62">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>71</v>
+      </c>
+      <c r="C63">
+        <v>873</v>
+      </c>
+      <c r="D63">
+        <v>478</v>
+      </c>
+      <c r="E63">
+        <v>762</v>
+      </c>
+      <c r="F63">
+        <v>441</v>
+      </c>
+      <c r="G63">
+        <v>924</v>
+      </c>
+      <c r="H63">
+        <v>139</v>
+      </c>
+      <c r="I63">
+        <v>110</v>
+      </c>
+      <c r="J63">
+        <v>28</v>
+      </c>
+      <c r="K63">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64">
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <v>312</v>
+      </c>
+      <c r="D64">
+        <v>280</v>
+      </c>
+      <c r="E64">
+        <v>396</v>
+      </c>
+      <c r="F64">
+        <v>152</v>
+      </c>
+      <c r="G64">
+        <v>453</v>
+      </c>
+      <c r="H64">
+        <v>66</v>
+      </c>
+      <c r="I64">
+        <v>107</v>
+      </c>
+      <c r="J64">
+        <v>38</v>
+      </c>
+      <c r="K64">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <f>B59/B62*100</f>
+        <v>50</v>
+      </c>
+      <c r="C70">
+        <f>C59/C62*100</f>
+        <v>17.374517374517374</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ref="D70:K70" si="3">D59/D62*100</f>
+        <v>14.127423822714682</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="3"/>
+        <v>11.460258780036968</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="3"/>
+        <v>9.0047393364928912</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="3"/>
+        <v>18.53448275862069</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="3"/>
+        <v>38.888888888888893</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="3"/>
+        <v>7.59493670886076</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="3"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="3"/>
+        <v>19.182389937106919</v>
       </c>
     </row>
   </sheetData>

--- a/COUNTforSENG.xlsx
+++ b/COUNTforSENG.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loganpearce/Documents/GitHub/SENG300GROUP3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{AC5BC41D-E805-2744-9E6E-4CED05FF385F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{0C6239DC-5F0B-48E9-B479-5C066B970766}"/>
   <bookViews>
-    <workbookView xWindow="13680" yWindow="460" windowWidth="19940" windowHeight="19520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179016"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
   <si>
     <t>Nested type count</t>
   </si>
@@ -244,12 +240,45 @@
   </si>
   <si>
     <t>Plaid App</t>
+  </si>
+  <si>
+    <t>Josh's Projects</t>
+  </si>
+  <si>
+    <t>jMonkeyEngine</t>
+  </si>
+  <si>
+    <t>libGDX</t>
+  </si>
+  <si>
+    <t>TEAMMATES</t>
+  </si>
+  <si>
+    <t>JUnit 4</t>
+  </si>
+  <si>
+    <t>Activiti</t>
+  </si>
+  <si>
+    <t>Kore</t>
+  </si>
+  <si>
+    <t>MyCollab</t>
+  </si>
+  <si>
+    <t>BioJava</t>
+  </si>
+  <si>
+    <t>Cryptomator</t>
+  </si>
+  <si>
+    <t>Java Google Maps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -275,7 +304,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -283,11 +312,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -301,6 +421,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,26 +710,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M87" sqref="M87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.31640625" customWidth="1"/>
-    <col min="4" max="4" width="20.71484375" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.98828125" customWidth="1"/>
-    <col min="7" max="7" width="13.31640625" customWidth="1"/>
-    <col min="8" max="8" width="15.2890625" customWidth="1"/>
+    <col min="1" max="1" width="46.875" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>12</v>
       </c>
@@ -607,7 +737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -639,7 +769,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -679,7 +809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -718,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -758,7 +888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -798,7 +928,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -838,7 +968,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -878,7 +1008,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -917,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -956,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -995,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1034,12 +1164,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1087,13 +1217,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1128,7 +1258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1163,7 +1293,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1198,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1233,7 +1363,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1268,7 +1398,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1303,7 +1433,7 @@
         <v>7495</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1338,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1373,27 +1503,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1438,7 +1568,7 @@
         <v>10.256410256410255</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -1473,7 +1603,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1508,7 +1638,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1543,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -1578,7 +1708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1613,7 +1743,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1648,7 +1778,7 @@
         <v>4809</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -1683,7 +1813,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -1718,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -1753,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -1788,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -1823,12 +1953,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1873,7 +2003,7 @@
         <v>5.3559764859568908</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="74.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
@@ -1908,7 +2038,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>0</v>
       </c>
@@ -1943,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>1</v>
       </c>
@@ -1978,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>2</v>
       </c>
@@ -2013,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>58</v>
       </c>
@@ -2048,7 +2178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>4</v>
       </c>
@@ -2083,7 +2213,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>59</v>
       </c>
@@ -2118,7 +2248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>60</v>
       </c>
@@ -2153,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>61</v>
       </c>
@@ -2188,7 +2318,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2223,7 +2353,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -2258,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -2293,7 +2423,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -2328,7 +2458,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -2363,7 +2493,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -2398,7 +2528,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -2433,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -2468,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -2503,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -2538,12 +2668,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -2587,6 +2717,417 @@
         <f t="shared" si="3"/>
         <v>19.182389937106919</v>
       </c>
+    </row>
+    <row r="73" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="11">
+        <v>789</v>
+      </c>
+      <c r="C75" s="11">
+        <v>467</v>
+      </c>
+      <c r="D75" s="11">
+        <v>10</v>
+      </c>
+      <c r="E75" s="2">
+        <v>600</v>
+      </c>
+      <c r="F75" s="11">
+        <v>36</v>
+      </c>
+      <c r="G75" s="12">
+        <v>225</v>
+      </c>
+      <c r="H75" s="11">
+        <v>613</v>
+      </c>
+      <c r="I75" s="12">
+        <v>76</v>
+      </c>
+      <c r="J75" s="11">
+        <v>10</v>
+      </c>
+      <c r="K75" s="13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="11">
+        <v>0</v>
+      </c>
+      <c r="C76" s="11">
+        <v>0</v>
+      </c>
+      <c r="D76" s="11">
+        <v>0</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+      <c r="F76" s="11">
+        <v>0</v>
+      </c>
+      <c r="G76" s="12">
+        <v>0</v>
+      </c>
+      <c r="H76" s="11">
+        <v>0</v>
+      </c>
+      <c r="I76" s="12">
+        <v>1</v>
+      </c>
+      <c r="J76" s="11">
+        <v>0</v>
+      </c>
+      <c r="K76" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="11">
+        <v>79</v>
+      </c>
+      <c r="C77" s="11">
+        <v>319</v>
+      </c>
+      <c r="D77" s="11">
+        <v>9</v>
+      </c>
+      <c r="E77" s="2">
+        <v>132</v>
+      </c>
+      <c r="F77" s="11">
+        <v>31</v>
+      </c>
+      <c r="G77" s="12">
+        <v>38</v>
+      </c>
+      <c r="H77" s="11">
+        <v>208</v>
+      </c>
+      <c r="I77" s="12">
+        <v>15</v>
+      </c>
+      <c r="J77" s="11">
+        <v>0</v>
+      </c>
+      <c r="K77" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="11">
+        <v>1686</v>
+      </c>
+      <c r="C78" s="11">
+        <v>2265</v>
+      </c>
+      <c r="D78" s="11">
+        <v>760</v>
+      </c>
+      <c r="E78" s="14">
+        <v>408</v>
+      </c>
+      <c r="F78" s="11">
+        <v>1949</v>
+      </c>
+      <c r="G78" s="12">
+        <v>225</v>
+      </c>
+      <c r="H78" s="11">
+        <v>1478</v>
+      </c>
+      <c r="I78" s="12">
+        <v>1268</v>
+      </c>
+      <c r="J78" s="11">
+        <v>79</v>
+      </c>
+      <c r="K78" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="11">
+        <v>13134</v>
+      </c>
+      <c r="C79" s="11">
+        <v>53529</v>
+      </c>
+      <c r="D79" s="11">
+        <v>1219</v>
+      </c>
+      <c r="E79" s="14">
+        <v>796</v>
+      </c>
+      <c r="F79" s="11">
+        <v>2269</v>
+      </c>
+      <c r="G79" s="12">
+        <v>996</v>
+      </c>
+      <c r="H79" s="11">
+        <v>4720</v>
+      </c>
+      <c r="I79" s="12">
+        <v>3567</v>
+      </c>
+      <c r="J79" s="11">
+        <v>71</v>
+      </c>
+      <c r="K79" s="11">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="11">
+        <v>2150</v>
+      </c>
+      <c r="C80" s="11">
+        <v>5288</v>
+      </c>
+      <c r="D80" s="11">
+        <v>1111</v>
+      </c>
+      <c r="E80" s="14">
+        <v>1856</v>
+      </c>
+      <c r="F80" s="11">
+        <v>1861</v>
+      </c>
+      <c r="G80" s="12">
+        <v>585</v>
+      </c>
+      <c r="H80" s="11">
+        <v>2764</v>
+      </c>
+      <c r="I80" s="12">
+        <v>1479</v>
+      </c>
+      <c r="J80" s="11">
+        <v>204</v>
+      </c>
+      <c r="K80" s="11">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="11">
+        <v>0</v>
+      </c>
+      <c r="C81" s="11">
+        <v>0</v>
+      </c>
+      <c r="D81" s="11">
+        <v>0</v>
+      </c>
+      <c r="E81" s="14">
+        <v>0</v>
+      </c>
+      <c r="F81" s="11">
+        <v>0</v>
+      </c>
+      <c r="G81" s="12">
+        <v>0</v>
+      </c>
+      <c r="H81" s="11">
+        <v>0</v>
+      </c>
+      <c r="I81" s="12">
+        <v>0</v>
+      </c>
+      <c r="J81" s="11">
+        <v>0</v>
+      </c>
+      <c r="K81" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82" s="11">
+        <v>3</v>
+      </c>
+      <c r="C82" s="11">
+        <v>1</v>
+      </c>
+      <c r="D82" s="11">
+        <v>0</v>
+      </c>
+      <c r="E82" s="14">
+        <v>13</v>
+      </c>
+      <c r="F82" s="11">
+        <v>0</v>
+      </c>
+      <c r="G82" s="12">
+        <v>0</v>
+      </c>
+      <c r="H82" s="11">
+        <v>0</v>
+      </c>
+      <c r="I82" s="12">
+        <v>0</v>
+      </c>
+      <c r="J82" s="11">
+        <v>1</v>
+      </c>
+      <c r="K82" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" s="11">
+        <v>0</v>
+      </c>
+      <c r="C83" s="11">
+        <v>0</v>
+      </c>
+      <c r="D83" s="11">
+        <v>0</v>
+      </c>
+      <c r="E83" s="14">
+        <v>0</v>
+      </c>
+      <c r="F83" s="11">
+        <v>0</v>
+      </c>
+      <c r="G83" s="12">
+        <v>0</v>
+      </c>
+      <c r="H83" s="11">
+        <v>0</v>
+      </c>
+      <c r="I83" s="12">
+        <v>0</v>
+      </c>
+      <c r="J83" s="11">
+        <v>0</v>
+      </c>
+      <c r="K83" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84" s="11">
+        <v>8</v>
+      </c>
+      <c r="C84" s="11">
+        <v>0</v>
+      </c>
+      <c r="D84" s="11">
+        <v>1</v>
+      </c>
+      <c r="E84" s="14">
+        <v>20</v>
+      </c>
+      <c r="F84" s="11">
+        <v>5</v>
+      </c>
+      <c r="G84" s="12">
+        <v>0</v>
+      </c>
+      <c r="H84" s="11">
+        <v>6</v>
+      </c>
+      <c r="I84" s="12">
+        <v>2</v>
+      </c>
+      <c r="J84" s="11">
+        <v>1</v>
+      </c>
+      <c r="K84" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="15"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/COUNTforSENG.xlsx
+++ b/COUNTforSENG.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="94">
   <si>
     <t>Nested type count</t>
   </si>
@@ -273,13 +268,46 @@
   </si>
   <si>
     <t>Java Google Maps</t>
+  </si>
+  <si>
+    <t>Dal's Projects</t>
+  </si>
+  <si>
+    <t>EssentialsX</t>
+  </si>
+  <si>
+    <t>GriefPrevention</t>
+  </si>
+  <si>
+    <t>EssentialsChat</t>
+  </si>
+  <si>
+    <t>WorldGuard</t>
+  </si>
+  <si>
+    <t>WorldBorder</t>
+  </si>
+  <si>
+    <t>PlotSquared</t>
+  </si>
+  <si>
+    <t>ProtocolLib</t>
+  </si>
+  <si>
+    <t>SuperVanish</t>
+  </si>
+  <si>
+    <t>ViaVersion</t>
+  </si>
+  <si>
+    <t>WorldEdit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -304,7 +332,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -403,11 +431,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -431,6 +468,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,7 +530,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -526,7 +565,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -703,33 +742,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M87" sqref="M87"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="46.875" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="20.75" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="2" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="G1" t="s">
         <v>12</v>
       </c>
@@ -737,7 +770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="39.950000000000003" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,7 +802,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -809,7 +842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -848,7 +881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -888,7 +921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -928,7 +961,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -968,7 +1001,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1008,7 +1041,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1047,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1086,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1125,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1164,12 +1197,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1217,13 +1250,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1258,7 +1291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1293,7 +1326,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1328,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1363,7 +1396,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1398,7 +1431,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1433,7 +1466,7 @@
         <v>7495</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1468,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1503,27 +1536,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1568,7 +1601,7 @@
         <v>10.256410256410255</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -1603,7 +1636,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1638,7 +1671,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1673,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -1708,7 +1741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1743,7 +1776,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1778,7 +1811,7 @@
         <v>4809</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -1813,7 +1846,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -1848,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -1883,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -1918,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -1953,12 +1986,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2003,7 +2036,7 @@
         <v>5.3559764859568908</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="78.75">
       <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
@@ -2038,7 +2071,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="5" t="s">
         <v>0</v>
       </c>
@@ -2073,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="5" t="s">
         <v>1</v>
       </c>
@@ -2108,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="5" t="s">
         <v>2</v>
       </c>
@@ -2143,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="5" t="s">
         <v>58</v>
       </c>
@@ -2178,7 +2211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="5" t="s">
         <v>4</v>
       </c>
@@ -2213,7 +2246,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="5" t="s">
         <v>59</v>
       </c>
@@ -2248,7 +2281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="5" t="s">
         <v>60</v>
       </c>
@@ -2283,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
         <v>61</v>
       </c>
@@ -2318,7 +2351,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2353,7 +2386,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -2388,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -2423,7 +2456,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -2458,7 +2491,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -2493,7 +2526,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -2528,7 +2561,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -2563,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -2598,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -2633,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -2668,12 +2701,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -2718,8 +2751,8 @@
         <v>19.182389937106919</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="16.5" thickBot="1"/>
+    <row r="74" spans="1:11" ht="16.5" thickBot="1">
       <c r="A74" s="7" t="s">
         <v>72</v>
       </c>
@@ -2754,7 +2787,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -2789,7 +2822,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -2824,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -2859,7 +2892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -2894,7 +2927,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -2929,7 +2962,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -2964,7 +2997,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>28</v>
       </c>
@@ -2999,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>29</v>
       </c>
@@ -3034,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>30</v>
       </c>
@@ -3069,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>31</v>
       </c>
@@ -3104,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -3116,7 +3149,7 @@
       <c r="J85" s="13"/>
       <c r="K85" s="13"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="A86" s="15"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -3129,6 +3162,440 @@
       <c r="J86" s="16"/>
       <c r="K86" s="16"/>
     </row>
+    <row r="87" spans="1:11" ht="16.5" thickBot="1"/>
+    <row r="88" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A88" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="11">
+        <v>0</v>
+      </c>
+      <c r="C89" s="11">
+        <v>25</v>
+      </c>
+      <c r="D89" s="11">
+        <v>2</v>
+      </c>
+      <c r="E89" s="17">
+        <v>40</v>
+      </c>
+      <c r="F89" s="11">
+        <v>0</v>
+      </c>
+      <c r="G89" s="12">
+        <v>2</v>
+      </c>
+      <c r="H89" s="11">
+        <v>45</v>
+      </c>
+      <c r="I89" s="12">
+        <v>1</v>
+      </c>
+      <c r="J89" s="11">
+        <v>0</v>
+      </c>
+      <c r="K89" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="11">
+        <v>0</v>
+      </c>
+      <c r="C90" s="11">
+        <v>0</v>
+      </c>
+      <c r="D90" s="11">
+        <v>0</v>
+      </c>
+      <c r="E90" s="17">
+        <v>0</v>
+      </c>
+      <c r="F90" s="11">
+        <v>0</v>
+      </c>
+      <c r="G90" s="12">
+        <v>0</v>
+      </c>
+      <c r="H90" s="11">
+        <v>0</v>
+      </c>
+      <c r="I90" s="12">
+        <v>0</v>
+      </c>
+      <c r="J90" s="11">
+        <v>0</v>
+      </c>
+      <c r="K90" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="11">
+        <v>0</v>
+      </c>
+      <c r="C91" s="11">
+        <v>4</v>
+      </c>
+      <c r="D91" s="11">
+        <v>5</v>
+      </c>
+      <c r="E91" s="17">
+        <v>18</v>
+      </c>
+      <c r="F91" s="11">
+        <v>1</v>
+      </c>
+      <c r="G91" s="12">
+        <v>10</v>
+      </c>
+      <c r="H91" s="11">
+        <v>14</v>
+      </c>
+      <c r="I91" s="12">
+        <v>16</v>
+      </c>
+      <c r="J91" s="11">
+        <v>0</v>
+      </c>
+      <c r="K91" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="11">
+        <v>18</v>
+      </c>
+      <c r="C92" s="11">
+        <v>263</v>
+      </c>
+      <c r="D92" s="11">
+        <v>33</v>
+      </c>
+      <c r="E92" s="17">
+        <v>296</v>
+      </c>
+      <c r="F92" s="11">
+        <v>47</v>
+      </c>
+      <c r="G92" s="12">
+        <v>95</v>
+      </c>
+      <c r="H92" s="11">
+        <v>192</v>
+      </c>
+      <c r="I92" s="12">
+        <v>68</v>
+      </c>
+      <c r="J92" s="11">
+        <v>31</v>
+      </c>
+      <c r="K92" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="11">
+        <v>14</v>
+      </c>
+      <c r="C93" s="11">
+        <v>1250</v>
+      </c>
+      <c r="D93" s="11">
+        <v>60</v>
+      </c>
+      <c r="E93" s="17">
+        <v>817</v>
+      </c>
+      <c r="F93" s="11">
+        <v>37</v>
+      </c>
+      <c r="G93" s="12">
+        <v>512</v>
+      </c>
+      <c r="H93" s="11">
+        <v>414</v>
+      </c>
+      <c r="I93" s="12">
+        <v>107</v>
+      </c>
+      <c r="J93" s="11">
+        <v>38</v>
+      </c>
+      <c r="K93" s="11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="11">
+        <v>25</v>
+      </c>
+      <c r="C94" s="11">
+        <v>920</v>
+      </c>
+      <c r="D94" s="11">
+        <v>52</v>
+      </c>
+      <c r="E94" s="17">
+        <v>639</v>
+      </c>
+      <c r="F94" s="11">
+        <v>50</v>
+      </c>
+      <c r="G94" s="12">
+        <v>195</v>
+      </c>
+      <c r="H94" s="11">
+        <v>197</v>
+      </c>
+      <c r="I94" s="12">
+        <v>101</v>
+      </c>
+      <c r="J94" s="11">
+        <v>51</v>
+      </c>
+      <c r="K94" s="11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" s="11">
+        <v>0</v>
+      </c>
+      <c r="C95" s="11">
+        <v>0</v>
+      </c>
+      <c r="D95" s="11">
+        <v>0</v>
+      </c>
+      <c r="E95" s="17">
+        <v>0</v>
+      </c>
+      <c r="F95" s="11">
+        <v>0</v>
+      </c>
+      <c r="G95" s="12">
+        <v>0</v>
+      </c>
+      <c r="H95" s="11">
+        <v>0</v>
+      </c>
+      <c r="I95" s="12">
+        <v>0</v>
+      </c>
+      <c r="J95" s="11">
+        <v>0</v>
+      </c>
+      <c r="K95" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" s="11">
+        <v>0</v>
+      </c>
+      <c r="C96" s="11">
+        <v>0</v>
+      </c>
+      <c r="D96" s="11">
+        <v>0</v>
+      </c>
+      <c r="E96" s="17">
+        <v>0</v>
+      </c>
+      <c r="F96" s="11">
+        <v>0</v>
+      </c>
+      <c r="G96" s="12">
+        <v>0</v>
+      </c>
+      <c r="H96" s="11">
+        <v>0</v>
+      </c>
+      <c r="I96" s="12">
+        <v>0</v>
+      </c>
+      <c r="J96" s="11">
+        <v>0</v>
+      </c>
+      <c r="K96" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97" s="11">
+        <v>0</v>
+      </c>
+      <c r="C97" s="11">
+        <v>0</v>
+      </c>
+      <c r="D97" s="11">
+        <v>0</v>
+      </c>
+      <c r="E97" s="17">
+        <v>0</v>
+      </c>
+      <c r="F97" s="11">
+        <v>0</v>
+      </c>
+      <c r="G97" s="12">
+        <v>0</v>
+      </c>
+      <c r="H97" s="11">
+        <v>0</v>
+      </c>
+      <c r="I97" s="12">
+        <v>0</v>
+      </c>
+      <c r="J97" s="11">
+        <v>0</v>
+      </c>
+      <c r="K97" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" s="11">
+        <v>0</v>
+      </c>
+      <c r="C98" s="11">
+        <v>4</v>
+      </c>
+      <c r="D98" s="11">
+        <v>0</v>
+      </c>
+      <c r="E98" s="17">
+        <v>1</v>
+      </c>
+      <c r="F98" s="11">
+        <v>0</v>
+      </c>
+      <c r="G98" s="12">
+        <v>0</v>
+      </c>
+      <c r="H98" s="11">
+        <v>0</v>
+      </c>
+      <c r="I98" s="12">
+        <v>0</v>
+      </c>
+      <c r="J98" s="11">
+        <v>0</v>
+      </c>
+      <c r="K98" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="13">
+        <v>15</v>
+      </c>
+      <c r="C99" s="13">
+        <v>45</v>
+      </c>
+      <c r="D99" s="13">
+        <v>45</v>
+      </c>
+      <c r="E99" s="17">
+        <v>70</v>
+      </c>
+      <c r="F99" s="13">
+        <v>32</v>
+      </c>
+      <c r="G99" s="12">
+        <v>10</v>
+      </c>
+      <c r="H99" s="13">
+        <v>16</v>
+      </c>
+      <c r="I99" s="18">
+        <v>11</v>
+      </c>
+      <c r="J99" s="13">
+        <v>69</v>
+      </c>
+      <c r="K99" s="13">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="15"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/COUNTforSENG.xlsx
+++ b/COUNTforSENG.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Documents\GitHub\SENG300GROUP3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="110">
   <si>
     <t>Nested type count</t>
   </si>
@@ -301,13 +306,61 @@
   </si>
   <si>
     <t>WorldEdit</t>
+  </si>
+  <si>
+    <t>Robert’s Projects</t>
+  </si>
+  <si>
+    <t>Jpacman Framework</t>
+  </si>
+  <si>
+    <t>seventh</t>
+  </si>
+  <si>
+    <t>Snake</t>
+  </si>
+  <si>
+    <t>Java String Similarity</t>
+  </si>
+  <si>
+    <t>LeetCode Sol Res</t>
+  </si>
+  <si>
+    <t>Game of Life in Java</t>
+  </si>
+  <si>
+    <t>EduMIPS64</t>
+  </si>
+  <si>
+    <t>ATM Simulator</t>
+  </si>
+  <si>
+    <t>RinSim</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Other Interface and Class declarations</t>
+  </si>
+  <si>
+    <t>Marker Annotation count</t>
+  </si>
+  <si>
+    <t>Nested Annotation count</t>
+  </si>
+  <si>
+    <t>Local Annotation count</t>
+  </si>
+  <si>
+    <t>Other Annotation count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -742,27 +795,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.875" customWidth="1"/>
-    <col min="2" max="11" width="15" customWidth="1"/>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>12</v>
       </c>
@@ -770,7 +824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -802,7 +856,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -842,7 +896,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -881,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -921,7 +975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -961,7 +1015,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1001,7 +1055,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1041,7 +1095,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1080,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1119,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1158,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1197,12 +1251,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1250,13 +1304,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1291,7 +1345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1326,7 +1380,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1361,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1396,7 +1450,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1431,7 +1485,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1466,7 +1520,7 @@
         <v>7495</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1501,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1536,27 +1590,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1601,7 +1655,7 @@
         <v>10.256410256410255</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -1636,7 +1690,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1671,7 +1725,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1706,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -1741,7 +1795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1776,7 +1830,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1811,7 +1865,7 @@
         <v>4809</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -1846,7 +1900,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -1881,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -1916,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -1951,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -1986,12 +2040,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2036,7 +2090,7 @@
         <v>5.3559764859568908</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="78.75">
+    <row r="48" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
@@ -2071,7 +2125,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>0</v>
       </c>
@@ -2106,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>1</v>
       </c>
@@ -2141,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>2</v>
       </c>
@@ -2176,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>58</v>
       </c>
@@ -2211,7 +2265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>4</v>
       </c>
@@ -2246,7 +2300,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>59</v>
       </c>
@@ -2281,7 +2335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>60</v>
       </c>
@@ -2316,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>61</v>
       </c>
@@ -2351,7 +2405,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2386,7 +2440,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -2421,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -2456,7 +2510,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -2491,7 +2545,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -2526,7 +2580,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -2561,7 +2615,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -2596,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -2631,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -2666,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -2701,12 +2755,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -2751,8 +2805,8 @@
         <v>19.182389937106919</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="16.5" thickBot="1"/>
-    <row r="74" spans="1:11" ht="16.5" thickBot="1">
+    <row r="73" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>72</v>
       </c>
@@ -2787,7 +2841,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -2822,7 +2876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -2857,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -2892,7 +2946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -2927,7 +2981,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -2962,7 +3016,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -2997,7 +3051,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>28</v>
       </c>
@@ -3032,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>29</v>
       </c>
@@ -3067,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>30</v>
       </c>
@@ -3102,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>31</v>
       </c>
@@ -3137,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -3149,7 +3203,7 @@
       <c r="J85" s="13"/>
       <c r="K85" s="13"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="15"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -3162,8 +3216,8 @@
       <c r="J86" s="16"/>
       <c r="K86" s="16"/>
     </row>
-    <row r="87" spans="1:11" ht="16.5" thickBot="1"/>
-    <row r="88" spans="1:11" ht="16.5" thickBot="1">
+    <row r="87" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>83</v>
       </c>
@@ -3198,7 +3252,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -3233,7 +3287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -3268,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -3303,7 +3357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -3338,7 +3392,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -3373,7 +3427,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>27</v>
       </c>
@@ -3408,7 +3462,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>28</v>
       </c>
@@ -3443,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>29</v>
       </c>
@@ -3478,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>30</v>
       </c>
@@ -3513,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>31</v>
       </c>
@@ -3548,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -3583,7 +3637,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
@@ -3596,8 +3650,393 @@
       <c r="J100" s="16"/>
       <c r="K100" s="16"/>
     </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>8</v>
+      </c>
+      <c r="C104">
+        <v>93</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>50</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>14</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>267</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>154</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>6</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>129</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>51</v>
+      </c>
+      <c r="C107">
+        <v>702</v>
+      </c>
+      <c r="D107">
+        <v>6</v>
+      </c>
+      <c r="E107">
+        <v>41</v>
+      </c>
+      <c r="F107">
+        <v>562</v>
+      </c>
+      <c r="G107">
+        <v>19</v>
+      </c>
+      <c r="H107">
+        <v>228</v>
+      </c>
+      <c r="I107">
+        <v>17</v>
+      </c>
+      <c r="J107">
+        <v>399</v>
+      </c>
+      <c r="K107">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108">
+        <v>182</v>
+      </c>
+      <c r="C108">
+        <v>4127</v>
+      </c>
+      <c r="D108">
+        <v>16</v>
+      </c>
+      <c r="E108">
+        <v>98</v>
+      </c>
+      <c r="F108">
+        <v>2448</v>
+      </c>
+      <c r="G108">
+        <v>70</v>
+      </c>
+      <c r="H108">
+        <v>432</v>
+      </c>
+      <c r="I108">
+        <v>108</v>
+      </c>
+      <c r="J108">
+        <v>1857</v>
+      </c>
+      <c r="K108">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>106</v>
+      </c>
+      <c r="B109">
+        <v>93</v>
+      </c>
+      <c r="C109">
+        <v>1526</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>31</v>
+      </c>
+      <c r="F109">
+        <v>116</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>43</v>
+      </c>
+      <c r="I109">
+        <v>34</v>
+      </c>
+      <c r="J109">
+        <v>1466</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>60</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>107</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>108</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>109</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/COUNTforSENG.xlsx
+++ b/COUNTforSENG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TonyTea/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TonyTea/Documents/GitHub/SENG300GROUP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="61" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
       <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>

--- a/COUNTforSENG.xlsx
+++ b/COUNTforSENG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TonyTea/Documents/GitHub/SENG300GROUP3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TonyTea/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16720" tabRatio="500"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="94">
   <si>
     <t>Nested type count</t>
   </si>
@@ -135,6 +135,180 @@
   </si>
   <si>
     <t>geneDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logan's Projects </t>
+  </si>
+  <si>
+    <t>Incibator Dubbo</t>
+  </si>
+  <si>
+    <t>KillBill</t>
+  </si>
+  <si>
+    <t>Open Refine</t>
+  </si>
+  <si>
+    <t>Stage Monitor</t>
+  </si>
+  <si>
+    <t>Graph Hopper</t>
+  </si>
+  <si>
+    <t>h20.io</t>
+  </si>
+  <si>
+    <t>Omni Notes</t>
+  </si>
+  <si>
+    <t>pinpoint</t>
+  </si>
+  <si>
+    <t>Crawler4j</t>
+  </si>
+  <si>
+    <t>openFire</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>Quartz Scheduler</t>
+  </si>
+  <si>
+    <t>Open EMRConect</t>
+  </si>
+  <si>
+    <t>Wallet</t>
+  </si>
+  <si>
+    <t>Secure Banking System</t>
+  </si>
+  <si>
+    <t>Calendar System</t>
+  </si>
+  <si>
+    <t>Time4J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voj </t>
+  </si>
+  <si>
+    <t>Core Flight Systm(CFS) and data Dictionary(CCDD) Utility</t>
+  </si>
+  <si>
+    <t>Dert</t>
+  </si>
+  <si>
+    <t>Hyper realistic zombie</t>
+  </si>
+  <si>
+    <t>Other Interface/class Decl (non nest/non local/non anon)</t>
+  </si>
+  <si>
+    <t>Annotation type Count</t>
+  </si>
+  <si>
+    <t>Import Declarations Count</t>
+  </si>
+  <si>
+    <t>Amy's Projects</t>
+  </si>
+  <si>
+    <t>Shimmer</t>
+  </si>
+  <si>
+    <t>Applozic</t>
+  </si>
+  <si>
+    <t>Ribot</t>
+  </si>
+  <si>
+    <t>PocketHub</t>
+  </si>
+  <si>
+    <t>ownCloud</t>
+  </si>
+  <si>
+    <t>Slide</t>
+  </si>
+  <si>
+    <t>OpenLauncher</t>
+  </si>
+  <si>
+    <t>Activity Tracking/Location Sharing App</t>
+  </si>
+  <si>
+    <t>Note App</t>
+  </si>
+  <si>
+    <t>Plaid App</t>
+  </si>
+  <si>
+    <t>Josh's Projects</t>
+  </si>
+  <si>
+    <t>jMonkeyEngine</t>
+  </si>
+  <si>
+    <t>libGDX</t>
+  </si>
+  <si>
+    <t>TEAMMATES</t>
+  </si>
+  <si>
+    <t>JUnit 4</t>
+  </si>
+  <si>
+    <t>Activiti</t>
+  </si>
+  <si>
+    <t>Kore</t>
+  </si>
+  <si>
+    <t>MyCollab</t>
+  </si>
+  <si>
+    <t>BioJava</t>
+  </si>
+  <si>
+    <t>Cryptomator</t>
+  </si>
+  <si>
+    <t>Java Google Maps</t>
+  </si>
+  <si>
+    <t>Dal's Projects</t>
+  </si>
+  <si>
+    <t>EssentialsX</t>
+  </si>
+  <si>
+    <t>GriefPrevention</t>
+  </si>
+  <si>
+    <t>EssentialsChat</t>
+  </si>
+  <si>
+    <t>WorldGuard</t>
+  </si>
+  <si>
+    <t>WorldBorder</t>
+  </si>
+  <si>
+    <t>PlotSquared</t>
+  </si>
+  <si>
+    <t>ProtocolLib</t>
+  </si>
+  <si>
+    <t>SuperVanish</t>
+  </si>
+  <si>
+    <t>ViaVersion</t>
+  </si>
+  <si>
+    <t>WorldEdit</t>
   </si>
 </sst>
 </file>
@@ -166,10 +340,110 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -178,10 +452,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,6 +487,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -239,7 +538,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -274,7 +573,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -459,20 +758,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.83203125" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="2" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -544,9 +839,8 @@
       <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="2">
-        <f>40+18+7</f>
-        <v>65</v>
+      <c r="I3" s="1">
+        <v>183</v>
       </c>
       <c r="J3" s="2">
         <v>23</v>
@@ -584,8 +878,8 @@
       <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="2">
-        <v>0</v>
+      <c r="I4" s="1">
+        <v>2</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -623,9 +917,8 @@
       <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="2">
-        <f>91+22+25</f>
-        <v>138</v>
+      <c r="I5" s="1">
+        <v>274</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -663,9 +956,8 @@
       <c r="H6" s="2">
         <v>133</v>
       </c>
-      <c r="I6" s="2">
-        <f>558+170+211</f>
-        <v>939</v>
+      <c r="I6" s="1">
+        <v>2108</v>
       </c>
       <c r="J6" s="2">
         <v>127</v>
@@ -703,9 +995,8 @@
       <c r="H7" s="2">
         <v>10</v>
       </c>
-      <c r="I7" s="2">
-        <f>1412+617+840</f>
-        <v>2869</v>
+      <c r="I7" s="1">
+        <v>7628</v>
       </c>
       <c r="J7" s="2">
         <v>167</v>
@@ -743,9 +1034,8 @@
       <c r="H8" s="2">
         <v>155</v>
       </c>
-      <c r="I8" s="2">
-        <f>866+289+340</f>
-        <v>1495</v>
+      <c r="I8" s="1">
+        <v>3648</v>
       </c>
       <c r="J8" s="2">
         <v>210</v>
@@ -783,7 +1073,7 @@
       <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="2">
@@ -822,7 +1112,7 @@
       <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="2">
@@ -861,7 +1151,7 @@
       <c r="H11" s="2">
         <v>0</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="2">
@@ -900,7 +1190,7 @@
       <c r="H12" s="2">
         <v>2</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>1</v>
       </c>
       <c r="J12" s="2">
@@ -949,7 +1239,7 @@
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>6.9222577209797658</v>
+        <v>8.6812144212523723</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
@@ -1314,7 +1604,2003 @@
         <v>10.256410256410255</v>
       </c>
     </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>141</v>
+      </c>
+      <c r="D34">
+        <v>84</v>
+      </c>
+      <c r="E34">
+        <v>55</v>
+      </c>
+      <c r="F34">
+        <v>96</v>
+      </c>
+      <c r="G34">
+        <v>51</v>
+      </c>
+      <c r="H34">
+        <v>239</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="J34">
+        <v>351</v>
+      </c>
+      <c r="K34">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>6</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>75</v>
+      </c>
+      <c r="D36">
+        <v>229</v>
+      </c>
+      <c r="E36">
+        <v>14</v>
+      </c>
+      <c r="F36">
+        <v>138</v>
+      </c>
+      <c r="G36">
+        <v>34</v>
+      </c>
+      <c r="H36">
+        <v>93</v>
+      </c>
+      <c r="I36">
+        <v>9</v>
+      </c>
+      <c r="J36">
+        <v>236</v>
+      </c>
+      <c r="K36">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>71</v>
+      </c>
+      <c r="C37">
+        <v>1247</v>
+      </c>
+      <c r="D37">
+        <v>1427</v>
+      </c>
+      <c r="E37">
+        <v>607</v>
+      </c>
+      <c r="F37">
+        <v>465</v>
+      </c>
+      <c r="G37">
+        <v>547</v>
+      </c>
+      <c r="H37">
+        <v>1387</v>
+      </c>
+      <c r="I37">
+        <v>165</v>
+      </c>
+      <c r="J37">
+        <v>3809</v>
+      </c>
+      <c r="K37">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>256</v>
+      </c>
+      <c r="C38">
+        <v>3264</v>
+      </c>
+      <c r="D38">
+        <v>1194</v>
+      </c>
+      <c r="E38">
+        <v>1149</v>
+      </c>
+      <c r="F38">
+        <v>786</v>
+      </c>
+      <c r="G38">
+        <v>2546</v>
+      </c>
+      <c r="H38">
+        <v>4871</v>
+      </c>
+      <c r="I38">
+        <v>471</v>
+      </c>
+      <c r="J38">
+        <v>10604</v>
+      </c>
+      <c r="K38">
+        <v>4809</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39">
+        <v>48</v>
+      </c>
+      <c r="C39">
+        <v>1023</v>
+      </c>
+      <c r="D39">
+        <v>4443</v>
+      </c>
+      <c r="E39">
+        <v>896</v>
+      </c>
+      <c r="F39">
+        <v>1294</v>
+      </c>
+      <c r="G39">
+        <v>980</v>
+      </c>
+      <c r="H39">
+        <v>1885</v>
+      </c>
+      <c r="I39">
+        <v>200</v>
+      </c>
+      <c r="J39">
+        <v>7221</v>
+      </c>
+      <c r="K39">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>40</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <f>B34/B37*100</f>
+        <v>11.267605633802818</v>
+      </c>
+      <c r="C45">
+        <f>C34/C37*100</f>
+        <v>11.307137129109863</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:K45" si="2">D34/D37*100</f>
+        <v>5.8864751226348977</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>9.0609555189456348</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>20.64516129032258</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>9.3235831809872032</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>17.231434751261716</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>3.6363636363636362</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>9.2150170648464158</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>5.3559764859568908</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="5">
+        <v>71</v>
+      </c>
+      <c r="C49">
+        <v>22</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>20</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49">
+        <v>14</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="5">
+        <v>459</v>
+      </c>
+      <c r="C52">
+        <v>177</v>
+      </c>
+      <c r="D52">
+        <v>11</v>
+      </c>
+      <c r="E52">
+        <v>61</v>
+      </c>
+      <c r="F52">
+        <v>45</v>
+      </c>
+      <c r="G52">
+        <v>58</v>
+      </c>
+      <c r="H52">
+        <v>39</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>334</v>
+      </c>
+      <c r="K52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="5">
+        <v>1181</v>
+      </c>
+      <c r="C53">
+        <v>542</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>112</v>
+      </c>
+      <c r="F53">
+        <v>116</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>165</v>
+      </c>
+      <c r="I53">
+        <v>117</v>
+      </c>
+      <c r="J53">
+        <v>1088</v>
+      </c>
+      <c r="K53">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="5">
+        <v>517</v>
+      </c>
+      <c r="C54">
+        <v>78</v>
+      </c>
+      <c r="D54">
+        <v>27</v>
+      </c>
+      <c r="E54">
+        <v>311</v>
+      </c>
+      <c r="F54">
+        <v>62</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>74</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>190</v>
+      </c>
+      <c r="K54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="5">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" t="s">
+        <v>66</v>
+      </c>
+      <c r="G58" t="s">
+        <v>67</v>
+      </c>
+      <c r="H58" t="s">
+        <v>68</v>
+      </c>
+      <c r="I58" t="s">
+        <v>69</v>
+      </c>
+      <c r="J58" t="s">
+        <v>70</v>
+      </c>
+      <c r="K58" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>45</v>
+      </c>
+      <c r="D59">
+        <v>51</v>
+      </c>
+      <c r="E59">
+        <v>62</v>
+      </c>
+      <c r="F59">
+        <v>19</v>
+      </c>
+      <c r="G59">
+        <v>43</v>
+      </c>
+      <c r="H59">
+        <v>7</v>
+      </c>
+      <c r="I59">
+        <v>6</v>
+      </c>
+      <c r="J59">
+        <v>4</v>
+      </c>
+      <c r="K59">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>49</v>
+      </c>
+      <c r="D61">
+        <v>119</v>
+      </c>
+      <c r="E61">
+        <v>243</v>
+      </c>
+      <c r="F61">
+        <v>11</v>
+      </c>
+      <c r="G61">
+        <v>167</v>
+      </c>
+      <c r="H61">
+        <v>8</v>
+      </c>
+      <c r="I61">
+        <v>24</v>
+      </c>
+      <c r="J61">
+        <v>4</v>
+      </c>
+      <c r="K61">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>259</v>
+      </c>
+      <c r="D62">
+        <v>361</v>
+      </c>
+      <c r="E62">
+        <v>541</v>
+      </c>
+      <c r="F62">
+        <v>211</v>
+      </c>
+      <c r="G62">
+        <v>232</v>
+      </c>
+      <c r="H62">
+        <v>18</v>
+      </c>
+      <c r="I62">
+        <v>79</v>
+      </c>
+      <c r="J62">
+        <v>24</v>
+      </c>
+      <c r="K62">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>71</v>
+      </c>
+      <c r="C63">
+        <v>873</v>
+      </c>
+      <c r="D63">
+        <v>478</v>
+      </c>
+      <c r="E63">
+        <v>762</v>
+      </c>
+      <c r="F63">
+        <v>441</v>
+      </c>
+      <c r="G63">
+        <v>924</v>
+      </c>
+      <c r="H63">
+        <v>139</v>
+      </c>
+      <c r="I63">
+        <v>110</v>
+      </c>
+      <c r="J63">
+        <v>28</v>
+      </c>
+      <c r="K63">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64">
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <v>312</v>
+      </c>
+      <c r="D64">
+        <v>280</v>
+      </c>
+      <c r="E64">
+        <v>396</v>
+      </c>
+      <c r="F64">
+        <v>152</v>
+      </c>
+      <c r="G64">
+        <v>453</v>
+      </c>
+      <c r="H64">
+        <v>66</v>
+      </c>
+      <c r="I64">
+        <v>107</v>
+      </c>
+      <c r="J64">
+        <v>38</v>
+      </c>
+      <c r="K64">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <f>B59/B62*100</f>
+        <v>50</v>
+      </c>
+      <c r="C70">
+        <f>C59/C62*100</f>
+        <v>17.374517374517374</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ref="D70:K70" si="3">D59/D62*100</f>
+        <v>14.127423822714682</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="3"/>
+        <v>11.460258780036968</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="3"/>
+        <v>9.0047393364928912</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="3"/>
+        <v>18.53448275862069</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="3"/>
+        <v>38.888888888888893</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="3"/>
+        <v>7.59493670886076</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="3"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="3"/>
+        <v>19.182389937106919</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="11">
+        <v>789</v>
+      </c>
+      <c r="C75" s="11">
+        <v>467</v>
+      </c>
+      <c r="D75" s="11">
+        <v>10</v>
+      </c>
+      <c r="E75" s="2">
+        <v>600</v>
+      </c>
+      <c r="F75" s="11">
+        <v>36</v>
+      </c>
+      <c r="G75" s="12">
+        <v>225</v>
+      </c>
+      <c r="H75" s="11">
+        <v>613</v>
+      </c>
+      <c r="I75" s="12">
+        <v>76</v>
+      </c>
+      <c r="J75" s="11">
+        <v>10</v>
+      </c>
+      <c r="K75" s="13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="11">
+        <v>0</v>
+      </c>
+      <c r="C76" s="11">
+        <v>0</v>
+      </c>
+      <c r="D76" s="11">
+        <v>0</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+      <c r="F76" s="11">
+        <v>0</v>
+      </c>
+      <c r="G76" s="12">
+        <v>0</v>
+      </c>
+      <c r="H76" s="11">
+        <v>0</v>
+      </c>
+      <c r="I76" s="12">
+        <v>1</v>
+      </c>
+      <c r="J76" s="11">
+        <v>0</v>
+      </c>
+      <c r="K76" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="11">
+        <v>79</v>
+      </c>
+      <c r="C77" s="11">
+        <v>319</v>
+      </c>
+      <c r="D77" s="11">
+        <v>9</v>
+      </c>
+      <c r="E77" s="2">
+        <v>132</v>
+      </c>
+      <c r="F77" s="11">
+        <v>31</v>
+      </c>
+      <c r="G77" s="12">
+        <v>38</v>
+      </c>
+      <c r="H77" s="11">
+        <v>208</v>
+      </c>
+      <c r="I77" s="12">
+        <v>15</v>
+      </c>
+      <c r="J77" s="11">
+        <v>0</v>
+      </c>
+      <c r="K77" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="11">
+        <v>1686</v>
+      </c>
+      <c r="C78" s="11">
+        <v>2265</v>
+      </c>
+      <c r="D78" s="11">
+        <v>760</v>
+      </c>
+      <c r="E78" s="14">
+        <v>408</v>
+      </c>
+      <c r="F78" s="11">
+        <v>1949</v>
+      </c>
+      <c r="G78" s="12">
+        <v>225</v>
+      </c>
+      <c r="H78" s="11">
+        <v>1478</v>
+      </c>
+      <c r="I78" s="12">
+        <v>1268</v>
+      </c>
+      <c r="J78" s="11">
+        <v>79</v>
+      </c>
+      <c r="K78" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="11">
+        <v>13134</v>
+      </c>
+      <c r="C79" s="11">
+        <v>53529</v>
+      </c>
+      <c r="D79" s="11">
+        <v>1219</v>
+      </c>
+      <c r="E79" s="14">
+        <v>796</v>
+      </c>
+      <c r="F79" s="11">
+        <v>2269</v>
+      </c>
+      <c r="G79" s="12">
+        <v>996</v>
+      </c>
+      <c r="H79" s="11">
+        <v>4720</v>
+      </c>
+      <c r="I79" s="12">
+        <v>3567</v>
+      </c>
+      <c r="J79" s="11">
+        <v>71</v>
+      </c>
+      <c r="K79" s="11">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="11">
+        <v>2150</v>
+      </c>
+      <c r="C80" s="11">
+        <v>5288</v>
+      </c>
+      <c r="D80" s="11">
+        <v>1111</v>
+      </c>
+      <c r="E80" s="14">
+        <v>1856</v>
+      </c>
+      <c r="F80" s="11">
+        <v>1861</v>
+      </c>
+      <c r="G80" s="12">
+        <v>585</v>
+      </c>
+      <c r="H80" s="11">
+        <v>2764</v>
+      </c>
+      <c r="I80" s="12">
+        <v>1479</v>
+      </c>
+      <c r="J80" s="11">
+        <v>204</v>
+      </c>
+      <c r="K80" s="11">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="11">
+        <v>0</v>
+      </c>
+      <c r="C81" s="11">
+        <v>0</v>
+      </c>
+      <c r="D81" s="11">
+        <v>0</v>
+      </c>
+      <c r="E81" s="14">
+        <v>0</v>
+      </c>
+      <c r="F81" s="11">
+        <v>0</v>
+      </c>
+      <c r="G81" s="12">
+        <v>0</v>
+      </c>
+      <c r="H81" s="11">
+        <v>0</v>
+      </c>
+      <c r="I81" s="12">
+        <v>0</v>
+      </c>
+      <c r="J81" s="11">
+        <v>0</v>
+      </c>
+      <c r="K81" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82" s="11">
+        <v>3</v>
+      </c>
+      <c r="C82" s="11">
+        <v>1</v>
+      </c>
+      <c r="D82" s="11">
+        <v>0</v>
+      </c>
+      <c r="E82" s="14">
+        <v>13</v>
+      </c>
+      <c r="F82" s="11">
+        <v>0</v>
+      </c>
+      <c r="G82" s="12">
+        <v>0</v>
+      </c>
+      <c r="H82" s="11">
+        <v>0</v>
+      </c>
+      <c r="I82" s="12">
+        <v>0</v>
+      </c>
+      <c r="J82" s="11">
+        <v>1</v>
+      </c>
+      <c r="K82" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" s="11">
+        <v>0</v>
+      </c>
+      <c r="C83" s="11">
+        <v>0</v>
+      </c>
+      <c r="D83" s="11">
+        <v>0</v>
+      </c>
+      <c r="E83" s="14">
+        <v>0</v>
+      </c>
+      <c r="F83" s="11">
+        <v>0</v>
+      </c>
+      <c r="G83" s="12">
+        <v>0</v>
+      </c>
+      <c r="H83" s="11">
+        <v>0</v>
+      </c>
+      <c r="I83" s="12">
+        <v>0</v>
+      </c>
+      <c r="J83" s="11">
+        <v>0</v>
+      </c>
+      <c r="K83" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84" s="11">
+        <v>8</v>
+      </c>
+      <c r="C84" s="11">
+        <v>0</v>
+      </c>
+      <c r="D84" s="11">
+        <v>1</v>
+      </c>
+      <c r="E84" s="14">
+        <v>20</v>
+      </c>
+      <c r="F84" s="11">
+        <v>5</v>
+      </c>
+      <c r="G84" s="12">
+        <v>0</v>
+      </c>
+      <c r="H84" s="11">
+        <v>6</v>
+      </c>
+      <c r="I84" s="12">
+        <v>2</v>
+      </c>
+      <c r="J84" s="11">
+        <v>1</v>
+      </c>
+      <c r="K84" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="15"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+    </row>
+    <row r="87" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="11">
+        <v>0</v>
+      </c>
+      <c r="C89" s="11">
+        <v>25</v>
+      </c>
+      <c r="D89" s="11">
+        <v>2</v>
+      </c>
+      <c r="E89" s="17">
+        <v>40</v>
+      </c>
+      <c r="F89" s="11">
+        <v>0</v>
+      </c>
+      <c r="G89" s="12">
+        <v>2</v>
+      </c>
+      <c r="H89" s="11">
+        <v>45</v>
+      </c>
+      <c r="I89" s="12">
+        <v>1</v>
+      </c>
+      <c r="J89" s="11">
+        <v>0</v>
+      </c>
+      <c r="K89" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="11">
+        <v>0</v>
+      </c>
+      <c r="C90" s="11">
+        <v>0</v>
+      </c>
+      <c r="D90" s="11">
+        <v>0</v>
+      </c>
+      <c r="E90" s="17">
+        <v>0</v>
+      </c>
+      <c r="F90" s="11">
+        <v>0</v>
+      </c>
+      <c r="G90" s="12">
+        <v>0</v>
+      </c>
+      <c r="H90" s="11">
+        <v>0</v>
+      </c>
+      <c r="I90" s="12">
+        <v>0</v>
+      </c>
+      <c r="J90" s="11">
+        <v>0</v>
+      </c>
+      <c r="K90" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="11">
+        <v>0</v>
+      </c>
+      <c r="C91" s="11">
+        <v>4</v>
+      </c>
+      <c r="D91" s="11">
+        <v>5</v>
+      </c>
+      <c r="E91" s="17">
+        <v>18</v>
+      </c>
+      <c r="F91" s="11">
+        <v>1</v>
+      </c>
+      <c r="G91" s="12">
+        <v>10</v>
+      </c>
+      <c r="H91" s="11">
+        <v>14</v>
+      </c>
+      <c r="I91" s="12">
+        <v>16</v>
+      </c>
+      <c r="J91" s="11">
+        <v>0</v>
+      </c>
+      <c r="K91" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="11">
+        <v>18</v>
+      </c>
+      <c r="C92" s="11">
+        <v>263</v>
+      </c>
+      <c r="D92" s="11">
+        <v>33</v>
+      </c>
+      <c r="E92" s="17">
+        <v>296</v>
+      </c>
+      <c r="F92" s="11">
+        <v>47</v>
+      </c>
+      <c r="G92" s="12">
+        <v>95</v>
+      </c>
+      <c r="H92" s="11">
+        <v>192</v>
+      </c>
+      <c r="I92" s="12">
+        <v>68</v>
+      </c>
+      <c r="J92" s="11">
+        <v>31</v>
+      </c>
+      <c r="K92" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="11">
+        <v>14</v>
+      </c>
+      <c r="C93" s="11">
+        <v>1250</v>
+      </c>
+      <c r="D93" s="11">
+        <v>60</v>
+      </c>
+      <c r="E93" s="17">
+        <v>817</v>
+      </c>
+      <c r="F93" s="11">
+        <v>37</v>
+      </c>
+      <c r="G93" s="12">
+        <v>512</v>
+      </c>
+      <c r="H93" s="11">
+        <v>414</v>
+      </c>
+      <c r="I93" s="12">
+        <v>107</v>
+      </c>
+      <c r="J93" s="11">
+        <v>38</v>
+      </c>
+      <c r="K93" s="11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="11">
+        <v>25</v>
+      </c>
+      <c r="C94" s="11">
+        <v>920</v>
+      </c>
+      <c r="D94" s="11">
+        <v>52</v>
+      </c>
+      <c r="E94" s="17">
+        <v>639</v>
+      </c>
+      <c r="F94" s="11">
+        <v>50</v>
+      </c>
+      <c r="G94" s="12">
+        <v>195</v>
+      </c>
+      <c r="H94" s="11">
+        <v>197</v>
+      </c>
+      <c r="I94" s="12">
+        <v>101</v>
+      </c>
+      <c r="J94" s="11">
+        <v>51</v>
+      </c>
+      <c r="K94" s="11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" s="11">
+        <v>0</v>
+      </c>
+      <c r="C95" s="11">
+        <v>0</v>
+      </c>
+      <c r="D95" s="11">
+        <v>0</v>
+      </c>
+      <c r="E95" s="17">
+        <v>0</v>
+      </c>
+      <c r="F95" s="11">
+        <v>0</v>
+      </c>
+      <c r="G95" s="12">
+        <v>0</v>
+      </c>
+      <c r="H95" s="11">
+        <v>0</v>
+      </c>
+      <c r="I95" s="12">
+        <v>0</v>
+      </c>
+      <c r="J95" s="11">
+        <v>0</v>
+      </c>
+      <c r="K95" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" s="11">
+        <v>0</v>
+      </c>
+      <c r="C96" s="11">
+        <v>0</v>
+      </c>
+      <c r="D96" s="11">
+        <v>0</v>
+      </c>
+      <c r="E96" s="17">
+        <v>0</v>
+      </c>
+      <c r="F96" s="11">
+        <v>0</v>
+      </c>
+      <c r="G96" s="12">
+        <v>0</v>
+      </c>
+      <c r="H96" s="11">
+        <v>0</v>
+      </c>
+      <c r="I96" s="12">
+        <v>0</v>
+      </c>
+      <c r="J96" s="11">
+        <v>0</v>
+      </c>
+      <c r="K96" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97" s="11">
+        <v>0</v>
+      </c>
+      <c r="C97" s="11">
+        <v>0</v>
+      </c>
+      <c r="D97" s="11">
+        <v>0</v>
+      </c>
+      <c r="E97" s="17">
+        <v>0</v>
+      </c>
+      <c r="F97" s="11">
+        <v>0</v>
+      </c>
+      <c r="G97" s="12">
+        <v>0</v>
+      </c>
+      <c r="H97" s="11">
+        <v>0</v>
+      </c>
+      <c r="I97" s="12">
+        <v>0</v>
+      </c>
+      <c r="J97" s="11">
+        <v>0</v>
+      </c>
+      <c r="K97" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" s="11">
+        <v>0</v>
+      </c>
+      <c r="C98" s="11">
+        <v>4</v>
+      </c>
+      <c r="D98" s="11">
+        <v>0</v>
+      </c>
+      <c r="E98" s="17">
+        <v>1</v>
+      </c>
+      <c r="F98" s="11">
+        <v>0</v>
+      </c>
+      <c r="G98" s="12">
+        <v>0</v>
+      </c>
+      <c r="H98" s="11">
+        <v>0</v>
+      </c>
+      <c r="I98" s="12">
+        <v>0</v>
+      </c>
+      <c r="J98" s="11">
+        <v>0</v>
+      </c>
+      <c r="K98" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="13">
+        <v>15</v>
+      </c>
+      <c r="C99" s="13">
+        <v>45</v>
+      </c>
+      <c r="D99" s="13">
+        <v>45</v>
+      </c>
+      <c r="E99" s="17">
+        <v>70</v>
+      </c>
+      <c r="F99" s="13">
+        <v>32</v>
+      </c>
+      <c r="G99" s="12">
+        <v>10</v>
+      </c>
+      <c r="H99" s="13">
+        <v>16</v>
+      </c>
+      <c r="I99" s="18">
+        <v>11</v>
+      </c>
+      <c r="J99" s="13">
+        <v>69</v>
+      </c>
+      <c r="K99" s="13">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="15"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>